--- a/transze 01.2025/poprawki/lokalizacje not.xlsx
+++ b/transze 01.2025/poprawki/lokalizacje not.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pracownik\Documents\GitHub\Wiki_update\transze 01.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pracownik\Documents\GitHub\Wiki_update\transze 01.2025\poprawki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6E25E86-6C1B-48B2-8542-2B60807CE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EB226E-9284-4539-B5A3-1505784F26BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0022D899-DDBB-40B9-84A8-715E6C704C68}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="120">
   <si>
     <t>Q2101</t>
   </si>
@@ -54,9 +54,6 @@
     <t>P22</t>
   </si>
   <si>
-    <t>"N(icolaus). X. de Ben(even)to"</t>
-  </si>
-  <si>
     <t>P21</t>
   </si>
   <si>
@@ -66,27 +63,18 @@
     <t>30</t>
   </si>
   <si>
-    <t>"N(icolaus). XXX. de Ben(even)to"</t>
-  </si>
-  <si>
     <t>Q1204</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>"N(icolaus). XIIII. de Ben(even)to"</t>
-  </si>
-  <si>
     <t>Q1219</t>
   </si>
   <si>
     <t>Q1176</t>
   </si>
   <si>
-    <t>"N(icolaus). XII. de Ben(even)to"</t>
-  </si>
-  <si>
     <t>Q1179</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>Q1189</t>
   </si>
   <si>
-    <t>"N(icolaus). XVI. de Ben(even)to"</t>
-  </si>
-  <si>
     <t>Q1079</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t>Q1227</t>
   </si>
   <si>
-    <t>"De mandato. N(icolaus) de Ben(even)to"</t>
-  </si>
-  <si>
     <t>Q1229</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>Q1083</t>
   </si>
   <si>
-    <t>"Iac(obus). X. de Teram(o)"</t>
-  </si>
-  <si>
     <t>Q1077</t>
   </si>
   <si>
@@ -225,9 +204,6 @@
     <t>Q1071</t>
   </si>
   <si>
-    <t>"Iac(obus). XVI. de Teram(o)"</t>
-  </si>
-  <si>
     <t>Q1069</t>
   </si>
   <si>
@@ -252,9 +228,6 @@
     <t>Q1057</t>
   </si>
   <si>
-    <t>"N(icolaus). XIIII, de Ben(even)to"</t>
-  </si>
-  <si>
     <t>Q1055</t>
   </si>
   <si>
@@ -279,9 +252,6 @@
     <t>Q1044</t>
   </si>
   <si>
-    <t>"N(icolaus) de. XIIII. de Ben(even)to"</t>
-  </si>
-  <si>
     <t>Q1042</t>
   </si>
   <si>
@@ -363,9 +333,6 @@
     <t>Q614</t>
   </si>
   <si>
-    <t>"N(icolaus. XIIII. de Ben(even)to"</t>
-  </si>
-  <si>
     <t>Q601</t>
   </si>
   <si>
@@ -385,6 +352,48 @@
   </si>
   <si>
     <t>Q606</t>
+  </si>
+  <si>
+    <t>Q1087</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Q1174</t>
+  </si>
+  <si>
+    <t>"N(icolaus). XIIII. de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"N(icolaus). XVI. de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"N(icolaus. XIIII. de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"N(icolaus). X. de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"N(icolaus) de. XIIII. de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"N(icolaus). XIIII, de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"N(icolaus). XXX. de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"N(icolaus). XII. de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"De mandato. N(icolaus) de Ben(even)to."</t>
+  </si>
+  <si>
+    <t>"Iac(obus). X. de Teram(o)."</t>
+  </si>
+  <si>
+    <t>"Iac(obus). XVI. de Teram(o)."</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,18 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -737,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924F59EA-817A-46C7-98C0-63E8B7AAADCC}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,13 +770,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -767,13 +787,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -784,13 +804,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -801,13 +821,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -818,13 +838,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -835,13 +855,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -852,13 +872,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -869,13 +889,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -886,13 +906,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -903,13 +923,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -920,13 +940,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -937,13 +957,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -954,13 +974,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -971,13 +991,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -988,13 +1008,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -1005,13 +1025,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -1022,13 +1042,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -1039,13 +1059,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -1056,13 +1076,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -1073,13 +1093,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -1090,13 +1110,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -1107,13 +1127,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -1124,13 +1144,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -1141,13 +1161,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -1158,13 +1178,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -1175,13 +1195,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -1192,13 +1212,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -1209,13 +1229,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -1226,13 +1246,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -1243,13 +1263,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -1260,13 +1280,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -1277,13 +1297,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1294,13 +1314,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -1311,13 +1331,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -1328,13 +1348,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -1345,13 +1365,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -1362,13 +1382,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -1379,13 +1399,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -1396,13 +1416,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -1413,13 +1433,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -1430,13 +1450,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -1447,13 +1467,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -1464,13 +1484,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -1481,13 +1501,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -1498,13 +1518,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -1515,13 +1535,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -1532,13 +1552,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -1549,13 +1569,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -1566,13 +1586,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -1583,13 +1603,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
@@ -1600,13 +1620,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -1617,13 +1637,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -1634,13 +1654,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -1651,13 +1671,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -1668,13 +1688,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -1685,13 +1705,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -1702,13 +1722,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -1719,13 +1739,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -1736,13 +1756,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -1753,13 +1773,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -1770,13 +1790,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -1787,13 +1807,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -1804,13 +1824,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -1821,13 +1841,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -1838,13 +1858,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -1855,13 +1875,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -1872,13 +1892,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -1889,13 +1909,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -1906,13 +1926,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -1923,13 +1943,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -1940,13 +1960,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -1957,13 +1977,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -1974,13 +1994,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -1991,13 +2011,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -2008,13 +2028,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -2025,13 +2045,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -2042,13 +2062,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -2059,13 +2079,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -2076,13 +2096,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
@@ -2093,13 +2113,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -2110,13 +2130,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -2127,13 +2147,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -2144,13 +2164,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -2161,13 +2181,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -2178,13 +2198,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
@@ -2195,13 +2215,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -2212,13 +2232,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
@@ -2229,13 +2249,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D88" t="s">
         <v>1</v>
@@ -2246,13 +2266,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -2263,13 +2283,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -2280,13 +2300,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
@@ -2297,13 +2317,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
@@ -2314,13 +2334,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -2331,13 +2351,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -2348,13 +2368,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -2366,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H95" t="s">
         <v>1</v>
@@ -2377,13 +2397,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
@@ -2395,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H96" t="s">
         <v>1</v>
@@ -2406,13 +2426,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -2433,7 +2453,68 @@
         <v>0</v>
       </c>
     </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>107</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A99">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>